--- a/biology/Microbiologie/Milieu_Robertson/Milieu_Robertson.xlsx
+++ b/biology/Microbiologie/Milieu_Robertson/Milieu_Robertson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le milieu Robertson (ou milieu à la viande cuite) est un milieu de culture non sélectif et non différentiel employé en microbiologie pour la culture des bactéries anaérobies. Il a été décrit pour la première fois en 1916 par M. Robertson au cours d'une étude portant sur des germes anaérobies isolés de plaies gangréneuses[1]. Il s'agissait au départ d'une simple infusion de viande de cœur de bœuf légèrement alcalinisée. La formule a ensuite été enrichie pour améliorer les performances.
-Ce milieu convient à la culture pure de la plupart des anaérobies stricts, sporulés ou non. Il peut aussi servir de bouillon d’enrichissement pour des prélèvements contenant peu d’anaérobies au départ[2]. Il permet de lire le caractère protéolytique (noircissement et désagrégation des morceaux de viande avec odeur putride) ou saccharolytique (rougissement des morceaux de viande avec odeur rance) des souches[3]. C’est aussi un bon milieu de conservation des bactéries anaérobies.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le milieu Robertson (ou milieu à la viande cuite) est un milieu de culture non sélectif et non différentiel employé en microbiologie pour la culture des bactéries anaérobies. Il a été décrit pour la première fois en 1916 par M. Robertson au cours d'une étude portant sur des germes anaérobies isolés de plaies gangréneuses. Il s'agissait au départ d'une simple infusion de viande de cœur de bœuf légèrement alcalinisée. La formule a ensuite été enrichie pour améliorer les performances.
+Ce milieu convient à la culture pure de la plupart des anaérobies stricts, sporulés ou non. Il peut aussi servir de bouillon d’enrichissement pour des prélèvements contenant peu d’anaérobies au départ. Il permet de lire le caractère protéolytique (noircissement et désagrégation des morceaux de viande avec odeur putride) ou saccharolytique (rougissement des morceaux de viande avec odeur rance) des souches. C’est aussi un bon milieu de conservation des bactéries anaérobies.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La base nutritive se compose principalement de viande de cœur de bœuf à l'état frais ou lyophilisé. De la peptone trypsique de viande et du glucose complètent les apports nutritifs.
 La viande de bœuf sert également d'agent réducteur. Elle contient des acides gras insaturés dont l'auto-oxydation consomme une partie du dioxygène présent, des protéines dont les groupements thiol (-SH) réducteurs ont une biodisponibilité augmentée après dénaturation thermique (rôle du chauffage), et d'autres molécules réductrices telles que le glutathion et cystine. Ces substances consomment le dioxygène dissous et rendent ainsi possible la survie des anaérobies stricts. Pour éviter l'épuisement prématuré de ce potentiel réducteur, le milieu doit être débarrassé de son dioxygène dissous et maintenu ensuite à l'abri de l'air, en conditions anaérobies.
@@ -546,14 +560,16 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour 1000 mL de milieu[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour 1000 mL de milieu :
 cœur de boeuf : 98 g de viande lyophilisée (préparée à partir de 454 g de viande fraîche)
 peptone peptique de viande : 20 g
 chlorure de sodium : 5 g
 D-glucose : 2 g.
-ingrédients supplémentaires pour la formule enrichie[2] :
+ingrédients supplémentaires pour la formule enrichie :
 extrait de levure : 5 g
 D-glucose : 3 g
 hémine : 5 mg
@@ -587,9 +603,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formule d'origine décrite par M. Robertson[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formule d'origine décrite par M. Robertson :
 émincer finement et piler au mortier 225 g (8 oz.) de viande de cœur de bœuf
 faire chauffer lentement dans 250 mL d'eau jusqu'à ce que la viande soit très cuite
 alcaliniser le bouillon refroidi avec une solution de NaOH 1 M jusqu'à un pH légèrement basique (virage de la teinture de tournesol)
